--- a/tests/outputs/Extras1.xlsx
+++ b/tests/outputs/Extras1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,83 +79,108 @@
         <color rgb="00000000"/>
       </diagonal>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="3" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" indent="3"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,21 +476,21 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="E10" xSplit="4" ySplit="9"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10.42578125"/>
-    <col customWidth="1" max="13" min="13" width="13.140625"/>
-    <col customWidth="1" max="14" min="14" width="11.140625"/>
-    <col customWidth="1" max="15" min="15" width="11.5703125"/>
+    <col width="10.42578125" customWidth="1" min="1" max="1"/>
+    <col width="13.140625" customWidth="1" min="13" max="13"/>
+    <col width="11.140625" customWidth="1" min="14" max="14"/>
+    <col width="11.5703125" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Extra stuff we don't support with xlrd</t>
@@ -503,7 +528,7 @@
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr"/>
       <c r="C3" s="2" t="inlineStr"/>
@@ -579,7 +604,7 @@
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Symbols</t>
@@ -638,7 +663,7 @@
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
@@ -659,7 +684,7 @@
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Filter</t>
@@ -700,7 +725,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>a</t>
@@ -733,7 +758,7 @@
         <v>99</v>
       </c>
     </row>
-    <row hidden="1" r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>b</t>
@@ -766,7 +791,7 @@
         <v>88</v>
       </c>
     </row>
-    <row hidden="1" r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>c</t>
@@ -799,7 +824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>d</t>
@@ -832,7 +857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
@@ -1027,7 +1052,7 @@
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>This cell has indentation 3</t>
@@ -1035,14 +1060,14 @@
       </c>
       <c r="B27" s="5" t="n"/>
       <c r="C27" s="5" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>Conditional Formatting</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr"/>
-      <c r="G27" s="7" t="inlineStr"/>
+      <c r="F27" s="6" t="inlineStr"/>
+      <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
@@ -1052,13 +1077,13 @@
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="28">
-      <c r="A28" s="7" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Formulas</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>Here</t>
         </is>
@@ -1081,7 +1106,7 @@
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="29">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>5!</t>
@@ -1108,7 +1133,7 @@
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="30">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>SQRT(4)</t>
@@ -1135,7 +1160,7 @@
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="31">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>5!*SQRT(4)</t>
@@ -1162,7 +1187,7 @@
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="32">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
@@ -1193,7 +1218,7 @@
   <mergeCells count="1">
     <mergeCell ref="A27:D27"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1211,7 +1236,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1229,6 +1254,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>